--- a/Burndown fyrir 2. itrun.xlsx
+++ b/Burndown fyrir 2. itrun.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91hjo_000\Dropbox\Skolinn\Git\ThrounHugb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -37,25 +45,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFCCCCCC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -63,9 +64,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -84,24 +83,38 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="1" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -113,22 +126,33 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Burndown graf 2. ítrunar</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -153,15 +177,80 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$15</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$15</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$F$2:$F$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -169,6 +258,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -193,24 +288,100 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$15</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$15</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$G$2:$G$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1374343520"/>
-        <c:axId val="1708264878"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1912460144"/>
+        <c:axId val="-1912465040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1374343520"/>
+        <c:axId val="-1912460144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -222,26 +393,28 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>Days</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1708264878"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1912465040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1708264878"/>
+        <c:axId val="-1912465040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -258,14 +431,18 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>Effort Remaining</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt sourceLinked="1" formatCode="General"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -279,41 +456,53 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1374343520"/>
+        <c:crossAx val="-1912460144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>438150</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cy="3533775" cx="5715000"/>
-    <xdr:graphicFrame>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off y="0" x="0"/>
-        <a:ext cy="0" cx="0"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -322,44 +511,306 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane topLeftCell="A2" ySplit="1.0" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A2" activeCell="A2" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" customWidth="1" max="4" width="18.29"/>
-    <col min="5" customWidth="1" max="5" width="42.14"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c t="s" s="1" r="F1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c t="s" s="1" r="G1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -369,16 +820,16 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c s="1" r="F2">
+      <c r="F2" s="1">
         <f>SUM(B2:B15)-B2</f>
         <v>43</v>
       </c>
-      <c s="1" r="G2">
+      <c r="G2" s="1">
         <f>SUM(B2:B15)-C2</f>
         <v>50</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -388,16 +839,16 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c s="1" r="F3">
-        <f>F2-B3</f>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F8" si="0">F2-B3</f>
         <v>36</v>
       </c>
-      <c s="1" r="G3">
-        <f>if((C3 &gt;= 0),( SUM(B$2:B$15)-SUM(C$2:C3)), )</f>
+      <c r="G3" s="1">
+        <f>IF((C3 &gt;= 0),( SUM(B$2:B$15)-SUM(C$2:C3)), )</f>
         <v>50</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -407,16 +858,16 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c s="1" r="F4">
-        <f>F3-B4</f>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c s="1" r="G4">
-        <f>if((C4 &gt; 0),( SUM(B$2:B$15)-SUM(C$2:C4)), )</f>
+      <c r="G4" s="1">
+        <f>IF((C4 &gt; 0),( SUM(B$2:B$15)-SUM(C$2:C4)), )</f>
         <v>47</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -426,16 +877,16 @@
       <c r="C5">
         <v>7</v>
       </c>
-      <c s="1" r="F5">
-        <f>F4-B5</f>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c s="1" r="G5">
-        <f>if((C5 &gt; 0),( SUM(B$2:B$15)-SUM(C$2:C5)), )</f>
+      <c r="G5" s="1">
+        <f>IF((C5 &gt; 0),( SUM(B$2:B$15)-SUM(C$2:C5)), )</f>
         <v>40</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -445,16 +896,16 @@
       <c r="C6">
         <v>7</v>
       </c>
-      <c s="1" r="F6">
-        <f>F5-B6</f>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c s="1" r="G6">
-        <f>if((C6 &gt; 0),( SUM(B$2:B$15)-SUM(C$2:C6)), )</f>
+      <c r="G6" s="1">
+        <f>IF((C6 &gt; 0),( SUM(B$2:B$15)-SUM(C$2:C6)), )</f>
         <v>33</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -464,16 +915,16 @@
       <c r="C7">
         <v>14</v>
       </c>
-      <c s="1" r="F7">
-        <f>F6-B7</f>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c s="1" r="G7">
-        <f>if((C7 &gt; 0),( SUM(B$2:B$15)-SUM(C$2:C7)), )</f>
+      <c r="G7" s="1">
+        <f>IF((C7 &gt; 0),( SUM(B$2:B$15)-SUM(C$2:C7)), )</f>
         <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -483,65 +934,45 @@
       <c r="C8">
         <v>8</v>
       </c>
-      <c s="1" r="F8">
-        <f>F7-B8</f>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c s="1" r="G8">
-        <f>if((C8 &gt; 0),( SUM(B$2:B$15)-SUM(C$2:C8)), )</f>
+      <c r="G8" s="1">
+        <f>IF((C8 &gt; 0),( SUM(B$2:B$15)-SUM(C$2:C8)), )</f>
         <v>11</v>
       </c>
     </row>
-    <row r="9">
-      <c s="1" r="F9"/>
-      <c t="str" s="1" r="G9">
-        <f>if((C9 &gt; 0),( SUM(B$2:B$15)-SUM(C$2:C9)), )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c s="1" r="F10"/>
-      <c t="str" s="1" r="G10">
-        <f>if((C10 &gt; 0),( SUM(B$2:B$15)-SUM(C$2:C10)), )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c s="1" r="F11"/>
-      <c t="str" s="1" r="G11">
-        <f>if((C11 &gt; 0),( SUM(B$2:B$15)-SUM(C$2:C11)), )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c s="1" r="F12"/>
-      <c t="str" s="1" r="G12">
-        <f>if((C12 &gt; 0),( SUM(B$2:B$15)-SUM(C$2:C12)), )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c s="1" r="F13"/>
-      <c t="str" s="1" r="G13">
-        <f>if((C13 &gt; 0),( SUM(B$2:B$15)-SUM(C$2:C13)), )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c s="1" r="F14"/>
-      <c t="str" s="1" r="G14">
-        <f>if((C14 &gt; 0),( SUM(B$2:B$15)-SUM(C$2:C14)), )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c s="1" r="F15"/>
-      <c t="str" s="1" r="G15">
-        <f>if((C15 &gt; 0),( SUM(B$2:B$15)-SUM(C$2:C15)), )</f>
-        <v/>
-      </c>
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>